--- a/python-excel-get-started-solutions.xlsx
+++ b/python-excel-get-started-solutions.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27031"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{158A1279-1214-42BE-84D3-2703830A81E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791B1C78-C11D-407B-8A62-105EAFB8062A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{0A23B569-3192-4365-86D5-309163F6E165}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{2E41FF59-E030-4D3D-BD6E-1467FE591C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="hello-world" sheetId="1" r:id="rId1"/>
-    <sheet name="nyc-pop" sheetId="2" r:id="rId2"/>
+    <sheet name="nyc_pop" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,6 +34,67 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
+<pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
+  <pythonScript>
+    <code>my_object = 'Hello, world!'</code>
+  </pythonScript>
+  <pythonScript>
+    <code>my_object.upper()</code>
+  </pythonScript>
+  <pythonScript>
+    <code xml:space="preserve">nyc_pop = xl(%P2%, headers=True) </code>
+  </pythonScript>
+</pythonScripts>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -120,13 +181,132 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160220</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E96DE2-0847-DEE9-FF07-E7A9438C4DB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2433638"/>
+          <a:ext cx="5184658" cy="4096520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <fb t="s">Hello, world!</fb>
+    <v>&lt;class 'str'&gt;</v>
+    <v>str</v>
+    <v>Hello, world!</v>
+    <v>Hello, world!</v>
+  </rv>
+  <rv s="0">
+    <fb t="s">HELLO, WORLD!</fb>
+    <v>&lt;class 'str'&gt;</v>
+    <v>str</v>
+    <v>HELLO, WORLD!</v>
+    <v>HELLO, WORLD!</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="basicValue" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{747AC616-8A44-40BF-B8E0-652F70298A45}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{747AC616-8A44-40BF-B8E0-652F70298A45}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{456FF165-CB56-407D-8222-C9F0935D7D60}" name="nyc_pop" displayName="nyc_pop" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{456FF165-CB56-407D-8222-C9F0935D7D60}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E0C98B27-7F3D-4BF5-88E4-C8EB6189D859}" name="borough"/>
-    <tableColumn id="2" xr3:uid="{13E4946B-AB76-45A6-A4AD-F1E1FF68E889}" name="population" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{C1BE481C-E8BB-4F17-856E-9F17BBA75669}" name="land_area"/>
+    <tableColumn id="1" xr3:uid="{26945669-7A59-44A7-9525-9771AA042A42}" name="borough"/>
+    <tableColumn id="2" xr3:uid="{FE6E5257-1713-4391-A556-ABA4C561800A}" name="population" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{AF7C1BFD-6695-479C-BA7C-EDD9506AC8E9}" name="land_area"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -448,38 +628,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2BEEE3-2664-4340-B838-B6644BB640D0}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E93D8D4-524A-4AAD-8291-1FDE7ECFD20A}">
+  <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="1" max="1" width="10.40625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.0703125" customWidth="1"/>
-    <col min="3" max="3" width="10.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.73828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.9609375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="B2" t="str" cm="1" vm="1">
+        <f t="array" ref="B2">_xlfn._xlws.PY(0,1)</f>
+        <v>Hello, world!</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.85">
+      <c r="C3" t="str" cm="1" vm="2">
+        <f t="array" ref="C3">_xlfn._xlws.PY(1,1)</f>
+        <v>HELLO, WORLD!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EF42A2-A8A6-4270-BB25-12D802CDC791}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0079F4FB-E19A-40B4-8138-462AEEFA02CD}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="10.92578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.18359375" customWidth="1"/>
     <col min="3" max="3" width="9.3671875" customWidth="1"/>
+    <col min="5" max="5" width="10.92578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -489,8 +683,18 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" t="str" cm="1">
+        <f t="array" ref="E1:G6">_xlfn._xlws.PY(2,0,nyc_pop[#All])</f>
+        <v>borough</v>
+      </c>
+      <c r="F1" t="str">
+        <v>population</v>
+      </c>
+      <c r="G1" t="str">
+        <v>land_area</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -500,8 +704,17 @@
       <c r="C2">
         <v>69.5</v>
       </c>
+      <c r="E2" t="str">
+        <v>Brooklyn</v>
+      </c>
+      <c r="F2">
+        <v>2736074</v>
+      </c>
+      <c r="G2">
+        <v>69.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -511,8 +724,17 @@
       <c r="C3">
         <v>108.7</v>
       </c>
+      <c r="E3" t="str">
+        <v>Queens</v>
+      </c>
+      <c r="F3">
+        <v>2405464</v>
+      </c>
+      <c r="G3">
+        <v>108.7</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -522,8 +744,17 @@
       <c r="C4">
         <v>22.83</v>
       </c>
+      <c r="E4" t="str">
+        <v>Manhattan</v>
+      </c>
+      <c r="F4">
+        <v>1694251</v>
+      </c>
+      <c r="G4">
+        <v>22.83</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -533,8 +764,17 @@
       <c r="C5">
         <v>42.1</v>
       </c>
+      <c r="E5" t="str">
+        <v>The Bronx</v>
+      </c>
+      <c r="F5">
+        <v>1472654</v>
+      </c>
+      <c r="G5">
+        <v>42.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -542,13 +782,24 @@
         <v>495747</v>
       </c>
       <c r="C6">
+        <v>58.37</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Staten Island</v>
+      </c>
+      <c r="F6">
+        <v>495747</v>
+      </c>
+      <c r="G6">
         <v>58.37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>